--- a/resources/testdata/UserStatusTestCase.xlsx
+++ b/resources/testdata/UserStatusTestCase.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>TCID</t>
   </si>
@@ -68,15 +68,9 @@
     <t>msg</t>
   </si>
   <si>
-    <t>autotestuser1</t>
-  </si>
-  <si>
     <t>Deactivate</t>
   </si>
   <si>
-    <t>User autotestuser1@10000.escm.local is deactivated globally. Contact your Service Provider.</t>
-  </si>
-  <si>
     <t>autotestuser1@10000.escm.local</t>
   </si>
   <si>
@@ -87,16 +81,33 @@
   </si>
   <si>
     <t>Are you sure you want to activate this user globally?</t>
+  </si>
+  <si>
+    <t>autotestuser2</t>
+  </si>
+  <si>
+    <t>User autotestuser2@10000.escm.local is deactivated globally. Contact your Service Provider.</t>
+  </si>
+  <si>
+    <t>autotestuser2@10000.escm.local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,14 +136,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,7 +515,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +549,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -554,7 +568,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,13 +592,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -597,10 +611,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -627,13 +644,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +663,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -660,14 +680,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
+      <c r="A2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>